--- a/crawlings/URL_Collection.xlsx
+++ b/crawlings/URL_Collection.xlsx
@@ -20,2172 +20,2160 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="722">
-  <si>
-    <t xml:space="preserve">Home_URL</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="718">
+  <si>
+    <t xml:space="preserve">HOME_URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.movieviral.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.slate.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.latintimes.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.pravdareport.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://underthegrayline.wordpress.com/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.macworld.co.uk/</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dailystar.co.uk/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.dailymotion.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.adweek.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.shape.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.aol.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.polygon.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.abovetopsecret.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.rudaw.net/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.tapatalk.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://redice.tv/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.theweathernetwork.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.liveleak.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://nationalpost.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://marijuanastocks.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.techradar.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://ann.az/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://truthaholics.wordpress.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.techinasia.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.newsday.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.inc.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.dailymail.co.uk/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://indianexpress.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gizmodo.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://losangeles.cbslocal.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://me.pcmag.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.stuff.co.nz/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.npr.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://news.sky.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.barstoolsports.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://newsrescue.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.sportsnet.ca/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.sunshinecoastdaily.com.au/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.tesla.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.wcvb.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://forums.sherdog.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://af.reuters.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://community.ebay.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ny1.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://translate.google.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://globalnews.ca/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://hollywoodlife.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.pri.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://thefederalistpapers.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.good4utah.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://seattle.cbslocal.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ghanagrio.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.edp24.co.uk/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.highsnobiety.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.dnaindia.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://variancemagazine.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gamefaqs.gamespot.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.delightfulknowledge.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://observer.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nationalpost.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://m.theepoch.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.wtsp.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.collective-evolution.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://limitran.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.albawaba.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.redflagnews.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.businessinsider.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mysteriousuniverse.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.thebureauinvestigates.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.dw.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://americaneveryman.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.todayonline.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://truthmovementnews.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://animalnewyork.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.gq.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.macworld.com.au/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.firstpost.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://closeronline.co.uk/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.news24.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.syriahr.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://securitytoday.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.alaraby.co.uk/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://fox2now.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.somalinet.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.christianpost.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://gulfbusiness.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.avsforum.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.foxnews.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.networkworld.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://abcnews.go.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.aol.co.uk/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://whnt.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.uktech.news/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://habervizyonudotcom.wordpress.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gadgets.ndtv.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://warisboring.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://praiseindy.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://freebeacon.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.perthnow.com.au/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.lostateminor.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://electro-sex-sound40.v7.bequeat52brooked.top/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.alipac.us/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://upload.democraticunderground.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.neatorama.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.laptopmag.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.aitonline.tv/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mediaite.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://foreignpolicy.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.metafilter.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.rferl.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.winknews.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://wccftech.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://allafrica.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.telegraph.co.uk/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://america.aljazeera.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://pix11.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://sabotagetimes.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.boston.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://apnews.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.businessinsider.in/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cnn.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cosmopolitan.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gazette.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cbr.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mic.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.barrons.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.winebusiness.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.middleeasteye.net/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.enca.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://valleywag.gawker.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.collegehumor.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://wtvr.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.computerworld.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.thefashionspot.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.aljazeera.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://allafrica.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.hngn.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.voanews.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.theglobeandmail.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.abc.net.au/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.nbcnews.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://edmontonsun.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.washingtonpost.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.siasat.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cbc.ca/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.latinpost.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.miaminewtimes.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.thrillist.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://observers.france24.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://boingboing.net/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.nbcphiladelphia.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.christiantoday.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.inquisitr.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://time.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.nbcnewyork.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.truthorfiction.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://play.google.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.newstatesman.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.washingtonexaminer.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://karaandnate.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.irishtimes.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.tacticalshit.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.tweentribune.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.vulture.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.newschannel10.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://radaronline.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.maannews.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.americaninno.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gh.newshub.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://newsexaminer.net/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www8.hp.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://krazyinsidekenya.wordpress.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://adobochronicles.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://weather.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.snow-forecast.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.seamagazine.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.imediaethics.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://countercurrentnews.info/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://coconuts.co/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.whatdoesitmean.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://torontosun.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://knowyourmeme.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.wbur.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.theepochtimes.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://arstechnica.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://fox59.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.newser.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://9to5mac.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bustle.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://comicbook.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.lenovo.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.dailystar.com.lb/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://linustechtips.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://news.nationalgeographic.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.hollywoodreporter.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.iflscience.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://abc7.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mcclatchydc.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.stltoday.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.businessinsider.com.au/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bleacherreport.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://betinews.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.ibtimes.com.au/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://crisisforums.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://disinfo.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.freerepublic.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.wsj.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.pinknews.co.uk/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.france24.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.colorlines.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.stuff.co.nz/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.revelist.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bbc.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://thegrio.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://fortune.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.lds.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://moneyweek.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.ronpaulforums.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bleedingcool.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.bishop-accountability.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.ca/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.redbookmag.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://english.alarabiya.net/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gloria.tv/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.indiatoday.in/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://sploid.gizmodo.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://entertainment.ie/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nypost.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.theverge.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.huffingtonpost.co.uk/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://healthypets.mercola.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://sea.pcmag.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.news-leader.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://deadline.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.huzlers.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://english.ahram.org.eg/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://na.newshub.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.latesttrending.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://schoolsimprovement.net/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.slashfilm.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.technobuffalo.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://malaysiandigest.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://kotaku.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.huffingtonpost.ca/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.nhl.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://worldnewsdailyreport.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://dinarvets.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.thesun.co.uk/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mystatesman.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.theaustralian.com.au/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.tolonews.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.jpost.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.phonearena.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.thehollywoodgossip.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bitcointalk.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://qz.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.rt.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.standard.co.uk/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.kansascity.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.straitstimes.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://cloudmind.info/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.vanityfair.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.domain.com.au/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://themichaelreport.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.techtimes.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.lasvegasnow.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.wgbh.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.nydailynews.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.pgbovine.net/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://onobello.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.freep.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://q13fox.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.express.co.uk/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://nukethefridge.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://thebiglead.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.thehulltruth.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mercurynews.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://religionnews.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leaksource.wordpress.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bignewsnetwork.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.thecut.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://digg.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.vice.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.iphoneincanada.ca/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://hongkong.asiaxpat.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.dhs.gov/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.reuters.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ft.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.bbc.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.slnnews.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.moroccoworldnews.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.westernjournal.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://uk.businessinsider.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.petmd.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dealbook.nytimes.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://dailybuzzlive.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.smh.com.au/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.vcstar.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ent.siteintelgroup.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://grabien.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.someecards.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.trendolizer.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.hoax-slayer.net/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://translate.google.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.pokerstars.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.breitbart.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.theprovince.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.news.com.au/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.technologyreview.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.health.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.bnnbloomberg.ca/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.quora.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.dmagazine.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.chron.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://theweek.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ajc.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://awfulannouncing.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.womansday.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.thedenverchannel.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.huffingtonpost.in/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.eater.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.csmonitor.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.wbrz.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://genocidewatch.net/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://detroit.cbslocal.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://help.hbonow.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.history.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.buzzfeednews.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.apnews.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.justjared.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://960thepatriot.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gigaom.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nltimes.nl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://metro.co.uk/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.billboard.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://21stcenturywire.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.haaretz.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.kentonline.co.uk/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://thegolfnewsnet.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://getcoldturkey.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.rgj.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://forums.anandtech.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.chicagotribune.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://punditfromanotherplanet.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.anorak.co.uk/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://techcrunch.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mondoweiss.net/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mobilesyrup.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://jalopnik.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://relevantmagazine.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.koreatimes.co.kr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dailycaller.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cameronstraughan.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://imemc.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://onlineathens.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.si.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.treasurenet.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.motherjones.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.citynews.ca/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.pressgazette.co.uk/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.recorder.ca/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.livemint.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.theepochtimes.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.onlinethreatalerts.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.koco.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tampa.cbslocal.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://timesofindia.indiatimes.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ftw.usatoday.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://thenet.ng/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.pulse.ng/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cheatsheet.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.linternaute.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://antiviral.gawker.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.wired.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://anapuafm.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://oilprice.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.vocativ.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.sott.net/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.newslocker.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ukprogressive.co.uk/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.politifact.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.healthline.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://vimeo.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://pando.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ibtimes.co.uk/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.bgr.in/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.deccanchronicle.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.thepoke.co.uk/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://forward.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://perezhilton.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.pressreader.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://fortressamerica.gawker.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://houston.cbslocal.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://thisisafrica.me/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.oneindia.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.thecannabist.co/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://thenextweb.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://screenrant.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://channeleye.co.uk/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.itv.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cheezburger.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://montrealgazette.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://movieweb.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.techieio.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.snopes.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://archive.li/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.msnbc.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uk.webfg.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://earthsky.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.nationalreview.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://articles.mercola.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://pagesix.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mojang.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://greatist.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.scoopnest.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ko.ifixit.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://wtop.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://wgntv.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.theouthousers.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mlb.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.medicalnewstoday.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://chrome.google.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.reddit.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ynaija.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.india.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mintpressnews.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.lgbtqnation.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.wardheernews.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.buzzfeed.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cnbc.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.dailymotion.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.independent.co.uk/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.hoax-slayer.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.myjoyonline.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.commentarymagazine.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.oprah.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.indiatimes.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.grubstreet.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.wusa9.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://capedcrusades.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.thedailystar.net/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.defense.gov/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.amwaj.ca/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.payetteforward.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.iphonehacks.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.kemmannu.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.sandiegouniontribune.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uproxx.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://article.wn.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.thegloss.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.opposingviews.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.businessinsider.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.sciencetimes.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.space.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://talkingpointsmemo.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.nairaland.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.exactservers.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.recode.net/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://says.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.theinquirer.net/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://freebeacon.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cbssports.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.itpro.co.uk/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://wafflesatnoon.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.indy100.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.dawgshed.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://genius.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.neweurope.eu/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.corsicanadailysun.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bellingcat.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.nytimes.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.politico.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.reuters.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://in.reuters.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ourclimateourfuture.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.timesofisrael.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.watoday.com.au/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://people.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.seeker.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bgr.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://deadspin.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://naturalsociety.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ocregister.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.smosh.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://transcripts.cnn.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://ew.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.slashgear.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.thedailybeast.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.emro.who.int/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.jewishpress.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.britannica.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.marketplace.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.nova.ie/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://myfox8.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ibtimes.co.in/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://jewishjournal.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mediamatters.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://right.is/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://ekurd.net/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.thecollegefix.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://en.farsnews.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.theatlantic.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.newsweek.com/</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.ksl.com/</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.lgbtqnation.com/</t>
+    <t xml:space="preserve">https://www.ndtv.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://msmbc.co/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.business2community.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.smithsonianmag.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.mtv.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.rochesterfirst.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cassie.net/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.tomsguide.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://fellowshipoftheminds.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://vanguardcu.mb.ca/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.theargus.co.uk/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.fromthegrapevine.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.salon.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.vox.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://o.canada.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ktoo.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.monitor.co.ug/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.macobserver.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.daily-sun.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.swampmusic.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://matrixbob.wordpress.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.dailydot.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://springsadvertiser.co.za/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://hiiraan.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://thepoliticalinsider.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.mycarforum.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.littlethings.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.ansa.it/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.examiner.co.uk/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cnet.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.macrumors.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.digitaljournal.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://bleacherreport.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.dallasnews.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://consumerist.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.alternet.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.respectwomen.co.in/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://africacheck.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.v3.co.uk/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.pcmag.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.thejournal.ie/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.thehindu.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.israelnationalnews.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://geneticliteracyproject.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://brobible.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.deadlinedetroit.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.upi.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://thehill.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ca.reuters.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ktla.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.asianmirror.lk/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://altahrir.wordpress.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.rnews.co.za/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://carrascoinmuebles.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.wsj.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.studentnewsdaily.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.pcworld.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.ibtimes.com/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.usnews.com/</t>
   </si>
   <si>
-    <t xml:space="preserve">http://www.dawgshed.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://observer.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://mic.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.tolonews.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.businessinsider.com.au/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.freerepublic.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.nytimes.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.gq.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://altahrir.wordpress.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://thisisafrica.me/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.dailydot.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.collegehumor.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.vox.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.iphoneincanada.ca/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://thefederalistpapers.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.businessinsider.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cosmopolitan.com/</t>
+    <t xml:space="preserve">https://www.independent.ie/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://washington.cbslocal.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitchy.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.comicbookmovie.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.breakingisraelnews.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://politicasdocus.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.hockeyinsideout.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dailymedianews24.mk/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.theguardian.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.theweek.co.uk/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.dailyrecord.co.uk/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://variety.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://investorplace.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://wqad.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mactrast.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.manchestereveningnews.co.uk/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.elbalad.news/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://thediplomat.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.myhaliburtonnow.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://gothamist.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://archive.is/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.tripadvisor.co.kr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.kctv5.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.digitaltrends.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.geekwire.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://money.cnn.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://forum.wordreference.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://translate.google.co.kr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mysanantonio.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://sisteroutrider.wordpress.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.khaama.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://awesomejelly.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.20minutes.fr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cdc.gov/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://kfor.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://fansided.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://xscorestv.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.sbnation.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://gawker.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.hallels.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bloomberg.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.huffingtonpost.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mtstandard.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bizjournals.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.nasdaq.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.msn.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.ticotimes.net/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cultofmac.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bccla.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://healthland.time.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.goodhousekeeping.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.imore.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.newsandstar.co.uk/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cn.reuters.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.theblaze.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.poynter.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.valuewalk.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.eaec.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ntnews.com.au/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.etsy.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://dailycaller.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.espn.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.cbc.ca/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://socialnewsdaily.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.news.com.au/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://stlouis.cbslocal.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.engadget.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.imdb.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://io9.gizmodo.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://thecoverage.my/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.dailysabah.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.golfdigest.com/</t>
   </si>
   <si>
     <t xml:space="preserve">http://message.snopes.com/</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.alipac.us/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ann.az/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://news.nationalgeographic.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.laptopmag.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.aol.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.hngn.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.pgbovine.net/</t>
+    <t xml:space="preserve">http://www.tmz.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.seattlepi.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.gizmodo.co.uk/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.qurbejoog.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.forbes.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.catholic.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.myjoyonline.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.capitalfm.co.ke/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.theregister.co.uk/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.alrasub.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://newspicks.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.telesurtv.net/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://insider.foxnews.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.ign.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.pbs.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bostonglobe.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cbsnews.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.emirates247.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.thewrap.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.today.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.latimes.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.newnownext.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bangkokpost.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cosmicbooknews.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uk.reuters.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://jezebel.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://apnews.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://news.vice.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.macleans.ca/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.dailytelegraph.com.au/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://yournewswire.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://sputniknews.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://koreabizwire.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.artfido.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.courthousenews.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.washingtontimes.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.dailywire.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.complex.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.winnipegfreepress.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.prnewswire.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.rd.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ibtimes.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mirror.co.uk/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bbc.co.uk/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://azh.kz/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.microsoft.com/</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://gothamist.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://fellowshipoftheminds.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://coconuts.co/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.apnews.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.inc.com/</t>
+    <t xml:space="preserve">https://www.iraqinews.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.fastcompany.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://reason.com/</t>
   </si>
   <si>
     <t xml:space="preserve">http://www.azfamily.com/</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.azcentral.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.huffingtonpost.co.uk/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.sickchirpse.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.thestar.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://collider.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.cnn.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.usatoday.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.usmagazine.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.thelocal.fr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.kaggle.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.c-span.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.zerohedge.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.thegatewaypundit.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://nymag.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.tvnz.co.nz/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mashable.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.eonline.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ctvnews.ca/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.digit.in/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.powr.com/</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://ottawacitizen.com/</t>
   </si>
   <si>
-    <t xml:space="preserve">https://warisboring.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://fieldguide.gizmodo.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.ansa.it/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.theguardian.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.billboard.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://montrealgazette.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://msmbc.co/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hongkong.asiaxpat.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.theverge.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.telegraph.co.uk/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://readwrite.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.thedailybeast.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.nairaland.com/</t>
+    <t xml:space="preserve">https://www.newsmax.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.dw.com/</t>
   </si>
   <si>
     <t xml:space="preserve">https://globalvoices.org/</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.fastcompany.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.bloomberg.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://mysteriousuniverse.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.pokerstars.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://crisisforums.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://forums.anandtech.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://imemc.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.polygon.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.mlb.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.lasvegasnow.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.vanityfair.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.standard.co.uk/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.eaec.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.lds.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ftw.usatoday.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.comicbookmovie.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.ticotimes.net/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.infowars.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://reason.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.elbalad.news/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.theargus.co.uk/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://abc7.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.ronpaulforums.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.exactservers.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.defense.gov/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://houston.cbslocal.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://sea.pcmag.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.foxnews.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://capedcrusades.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://forum.wordreference.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://marijuanastocks.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ca.reuters.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://linustechtips.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.littlethings.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.macrumors.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.macleans.ca/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.techradar.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.linternaute.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://wafflesatnoon.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.ibtimes.com.au/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.upi.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.hoax-slayer.net/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.recorder.ca/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.newschannel10.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.nydailynews.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://io9.gizmodo.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.winknews.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.huffingtonpost.co.uk/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.tapatalk.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.boston.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://translate.google.co.kr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://uk.businessinsider.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.straitstimes.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://greatist.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.newsday.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.poynter.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.deccanchronicle.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.target.com.au/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.latesttrending.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.pcworld.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://awesomejelly.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://timeoftimes.wordpress.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.corsicanadailysun.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://m.theepoch.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://translate.google.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.medicalnewstoday.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://myfox8.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://whnt.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://sputniknews.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://english.ahram.org.eg/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.lenovo.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.independent.ie/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://entertainment.ie/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.timesofisrael.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.firstpost.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bitcointalk.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.thestar.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.respectwomen.co.in/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.slate.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://onobello.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://yournewswire.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.catholic.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.thecannabist.co/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://m.theepochtimes.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://foreignpolicy.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.mediamatters.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ktla.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://underthegrayline.wordpress.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.khaama.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.tesla.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.politifact.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://thehill.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.dailymotion.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://people.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://screenrant.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.monitor.co.ug/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.wcvb.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://socialnewsdaily.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://adobochronicles.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://kotaku.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.seeker.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.sott.net/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.dmagazine.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.vocativ.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://malaysiandigest.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.jewishpress.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.theweek.co.uk/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://healthland.time.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.albawaba.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.rudaw.net/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.usmagazine.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.petmd.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.mintpressnews.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hiiraan.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.today.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cbc.ca/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.marketplace.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.anorak.co.uk/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.nhl.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.complex.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.news-leader.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.britannica.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.20minutes.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://investorplace.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.nbcnewyork.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.usatoday.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.nasdaq.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.tripadvisor.co.kr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://conservativecatholicpundit.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://femalemag.com.my/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.goodhousekeeping.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.techmeme.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.sandiegouniontribune.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.alaraby.co.uk/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.theprovince.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://azh.kz/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.miaminewtimes.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://mtstandard.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.watoday.com.au/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://knowyourmeme.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://oilprice.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://thepoliticalinsider.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.scoopnest.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.golfdigest.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://america.aljazeera.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.wsj.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://deadspin.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.smosh.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://losangeles.cbslocal.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://says.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://seattle.cbslocal.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://nukethefridge.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.businessinsider.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://carrascoinmuebles.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://closeronline.co.uk/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.nationalreview.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.mrperswall.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://news.vice.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.theregister.co.uk/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ghanagrio.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://time.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://nymag.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.mediaite.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.latinpost.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://limitran.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://wtop.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.studentnewsdaily.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.sunshinecoastdaily.com.au/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://globalnews.ca/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.chicagotribune.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://journals.sagepub.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.india.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pix11.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://en.farsnews.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.cnn.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://torontosun.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://breakthissafe.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.snopes.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://perezhilton.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://thegear.co.kr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.bleedingcool.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.myjoyonline.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.newsmax.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cbsnews.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://jezebel.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.dnaindia.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://movieweb.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ajc.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.theouthousers.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://consumer.healthday.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://africacheck.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://af.reuters.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.sfweekly.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.aol.co.uk/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://consumerist.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.dailywire.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.reuters.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.sunstar.com.ph/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.thehindu.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://dailycaller.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ynaija.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.livemint.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.wibw.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://gamefaqs.gamespot.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://variety.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://krazyinsidekenya.wordpress.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.someecards.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://upload.democraticunderground.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.mcclatchydc.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.hoax-slayer.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://awfulannouncing.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.snow-forecast.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.nzherald.co.nz/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.thecut.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://johnruthcapital.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://dailymedianews24.mk/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.uktech.news/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.thejournal.ie/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://sisteroutrider.wordpress.com/</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.cinemablend.com/</t>
   </si>
   <si>
-    <t xml:space="preserve">https://fox2now.com/</t>
+    <t xml:space="preserve">http://www.tedmontgomery.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.sde.co.ke/</t>
   </si>
   <si>
     <t xml:space="preserve">http://www.galvnews.com/</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.emirates247.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.c-span.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.vixendaily.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.middleeasteye.net/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ibtimes.co.in/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.dw.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.emarketer.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://article.wn.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.powr.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.business2community.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.msnbc.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://finance.yahoo.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.syriahr.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://doorigaja.tistory.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.rgj.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.capitalfm.co.ke/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.neatorama.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.geekwire.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://en.alalam.ir/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.daily-sun.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://gawker.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.mercurynews.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.pressreader.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.azcentral.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://metro.co.uk/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.bbc.co.uk/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://moneyweek.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cnbc.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.myhaliburtonnow.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.kemmannu.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://thenet.ng/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.stuff.co.nz/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.sciencetimes.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.winnipegfreepress.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.healthline.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://deadline.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.indiatimes.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://screencrush.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.news.com.au/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.fox5dc.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.pulse.ng/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://anomalien.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.trendolizer.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.siasat.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.dailysuperhero.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.bbc.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.bizjournals.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.abovetopsecret.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://nationalpost.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://vanguardcu.mb.ca/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cameronstraughan.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.imediaethics.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://transcripts.cnn.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://genocidewatch.net/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.voanews.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.thedailystar.net/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.nbcphiladelphia.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.sickchirpse.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.domain.com.au/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://gh.newshub.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.sbnation.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.axios.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hollywoodlife.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://newsexaminer.net/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.express.co.uk/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.dailymotion.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.westernjournal.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.technologyreview.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.vice.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ibtimes.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.wbrz.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.highsnobiety.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.whatdoesitmean.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.abc.net.au/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.amwaj.ca/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.dailyrecord.co.uk/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.neweurope.eu/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.reuters.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ntnews.com.au/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.technobuffalo.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://naturalsociety.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://donhuntington.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.seamagazine.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cbr.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://in.reuters.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://freebeacon.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.tmz.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://springsadvertiser.co.za/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.dailystar.co.uk/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.androidauthority.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.wired.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.thegatewaypundit.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.wtsp.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://relevantmagazine.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://jewishjournal.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.slashgear.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.oprah.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://download.tensorflow.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://translate.google.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.chron.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://newsrescue.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.pbs.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.thebureauinvestigates.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ktoo.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.opposingviews.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.salon.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://collider.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.techtimes.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.examiner.co.uk/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.kentonline.co.uk/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.tedmontgomery.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.womansday.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.rnews.co.za/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.thegloss.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://weather.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.thepoke.co.uk/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.engadget.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://gazette.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://theweek.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://sploid.gizmodo.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bgr.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.fool.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://dinarvets.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://edmontonsun.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://sabotagetimes.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://betinews.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://truthaholics.wordpress.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.huffingtonpost.ca/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.dailystar.com.lb/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.entrepreneur.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cbssports.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://tytnetwork.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://stlouis.cbslocal.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.csmonitor.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://vimeo.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.somalinet.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.elitereaders.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cn.reuters.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.thecollegefix.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://thebiglead.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.newslocker.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.newsweek.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.christiantoday.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.seattlepi.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.pressgazette.co.uk/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://gigaom.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.businessinsider.in/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://earthsky.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.dallasnews.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.thesun.co.uk/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://fortressamerica.gawker.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.washingtonexaminer.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://nltimes.nl/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.nova.ie/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ent.siteintelgroup.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.macworld.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.washingtontimes.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.mycarforum.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.sde.co.ke/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://fox59.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://onlineathens.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.shape.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.mirror.co.uk/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.huffingtonpost.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.independent.co.uk/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.thehulltruth.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cosmicbooknews.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.truthorfiction.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://talkingpointsmemo.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://allafrica.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://leaksource.wordpress.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.inquisitr.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.perthnow.com.au/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.revelist.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.idtechex.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.waow.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://digg.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.wbur.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.mystatesman.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://mojang.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.pravdareport.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.winebusiness.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://uproxx.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://dealbook.nytimes.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://countercurrentnews.info/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://americaneveryman.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www8.hp.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.news24.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://praiseindy.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.dailymail.co.uk/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.imore.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.bangkokpost.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://freebeacon.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://antiviral.gawker.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.hockeyinsideout.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://uk.reuters.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://english.alarabiya.net/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.smithsonianmag.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://kfor.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.forbes.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.alternet.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ourclimateourfuture.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://qz.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.barstoolsports.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.onlinethreatalerts.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://nofilmschool.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.theweathernetwork.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://fortune.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ew.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.stltoday.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.notebookcheck.net/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.collective-evolution.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cnn.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.iraqinews.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.newser.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://tampa.cbslocal.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.dailysabah.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.eater.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://chrome.google.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.bustle.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.qurbejoog.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.pcmag.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://topvpnsoftware.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.wardheernews.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://gizmodo.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.france24.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://comicbook.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.fromthegrapevine.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ko.ifixit.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.irishtimes.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cdc.gov/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.barrons.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.newnownext.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.slashfilm.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.tomsguide.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pando.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.trustedreviews.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.breitbart.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://dailybuzzlive.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://thewirecutter.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://yahoo.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://geneticliteracyproject.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://allafrica.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.commentarymagazine.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.thelocal.fr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pagesix.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://android.jlelse.eu/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.thedenverchannel.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://insider.foxnews.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://observers.france24.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.good4utah.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://indianexpress.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.colorlines.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://koreajoongangdaily.joins.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.v3.co.uk/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.thrillist.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://detroit.eater.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cultofmac.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://getcoldturkey.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.dailytelegraph.com.au/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ekurd.net/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://matrixbob.wordpress.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://mondoweiss.net/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.haaretz.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.rferl.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://religionnews.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://play.google.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.bellingcat.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.limboxcourier.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.redflagnews.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.artfido.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.nbcnews.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.koreatimes.co.kr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://sg.finance.yahoo.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://themichaelreport.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ibtimes.co.uk/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.manchestereveningnews.co.uk/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://furbo.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.pri.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://q13fox.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.treasurenet.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.todayonline.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.imdb.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://thegolfnewsnet.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://karaandnate.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.courthousenews.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.rt.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.wusa9.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.theepochtimes.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.ibtimes.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://grabien.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.zerohedge.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://abcnews.go.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.freep.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitchy.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.rochesterfirst.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.pinknews.co.uk/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://9to5mac.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.techieio.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://channeleye.co.uk/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://habervizyonudotcom.wordpress.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://uk.webfg.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://dailycaller.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.citynews.ca/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.huzlers.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.oneindia.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.hallels.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.indiatoday.in/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.startek.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.etsy.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.gzhwdz.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://money.cnn.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.theaustralian.com.au/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://forums.sherdog.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.movieviral.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://jalopnik.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.moroccoworldnews.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://techcrunch.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://news.sky.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.vulture.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.grubstreet.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://thecoverage.my/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.cbc.ca/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.smh.com.au/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.iflscience.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bccla.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.deadlinedetroit.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cnet.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://bleacherreport.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.politico.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://worldnewsdailyreport.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.myjoyonline.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.valuewalk.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.tert.am/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://o.canada.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.buzzfeednews.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://arstechnica.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://nypost.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://radaronline.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://gulfbusiness.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://apnews.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.bishop-accountability.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ft.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://kaospilotradar.dk/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.ign.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.washingtonpost.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.enca.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.asianmirror.lk/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cheatsheet.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.dw.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://electro-sex-sound40.v7.bequeat52brooked.top/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.thefashionspot.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.justjared.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.theblaze.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cassie.net/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://thediplomat.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.mysanantonio.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.kansascity.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.newstatesman.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://disinfo.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://detroit.cbslocal.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.siliconinvestor.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.kaggle.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.theinquirer.net/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.huffingtonpost.in/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.stuff.co.nz/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.health.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.worldpronews.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://thegrio.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.metafilter.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.bostonglobe.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://nationalpost.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.maannews.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://thenextweb.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.newsandstar.co.uk/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://citiescentre.info/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.bbc.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.theglobeandmail.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.reddit.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.eonline.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.thewrap.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.slnnews.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.buzzfeed.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.techinasia.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://fansided.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.koco.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://washington.cbslocal.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.jpost.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.quora.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.emro.who.int/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.itpro.co.uk/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.sportsnet.ca/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.eetimes.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.techadvisor.co.uk/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ocregister.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.npr.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.aljazeera.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.latimes.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ny1.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.bignewsnetwork.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.vcstar.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.computerworld.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.redbookmag.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.espn.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.wgbh.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.si.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://uk.news.yahoo.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.hollywoodreporter.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://koreabizwire.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.tacticalshit.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://securitytoday.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.huffingtonpost.co.uk/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://mashable.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.news.com.au/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://right.is/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.space.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.israelnationalnews.com/</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.iol.co.za/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://21stcenturywire.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://truthmovementnews.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://schoolsimprovement.net/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.dhs.gov/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.pauladaunt.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://brobible.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.indy100.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.delightfulknowledge.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cheezburger.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.latintimes.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.yahoo.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.aspca.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.thechurchguide.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.liveleak.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.ca/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://timesofindia.indiatimes.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.history.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://forward.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://genius.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.thehollywoodgossip.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bleacherreport.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://fau4u2.wordpress.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://cloudmind.info/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.wsj.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.breakingisraelnews.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://uk.news.yahoo.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.christianpost.com/</t>
   </si>
 </sst>
 </file>
@@ -2281,15 +2269,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A722"/>
+  <dimension ref="A1:A718"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L9" activeCellId="0" sqref="L9"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.9183673469388"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.8214285714286"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -5881,26 +5869,6 @@
     <row r="718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="0" t="s">
         <v>717</v>
-      </c>
-    </row>
-    <row r="719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A719" s="0" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A720" s="0" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A721" s="0" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A722" s="0" t="s">
-        <v>721</v>
       </c>
     </row>
   </sheetData>
